--- a/Maven_Hybrid/Fileoutput/HybridResults.xlsx
+++ b/Maven_Hybrid/Fileoutput/HybridResults.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -206,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,84 +232,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -383,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,19 +336,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,9 +709,7 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="16">
-        <v>57</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -814,9 +721,7 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="21">
-        <v>57</v>
-      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -828,9 +733,7 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="26">
-        <v>57</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1097,9 +1000,7 @@
       <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s" s="14">
-        <v>57</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1141,9 +1042,7 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="15">
-        <v>57</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1185,9 +1084,7 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s" s="17">
-        <v>57</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1229,9 +1126,7 @@
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s" s="18">
-        <v>57</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1273,9 +1168,7 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s" s="19">
-        <v>57</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
@@ -1317,9 +1210,7 @@
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s" s="20">
-        <v>57</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1361,9 +1252,7 @@
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s" s="22">
-        <v>57</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1405,9 +1294,7 @@
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s" s="23">
-        <v>57</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1449,9 +1336,7 @@
       <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s" s="24">
-        <v>57</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1493,9 +1378,7 @@
       <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s" s="25">
-        <v>57</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
